--- a/STOCK ALTERNATION LIST.xlsx
+++ b/STOCK ALTERNATION LIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="RATE LIST MERGED" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RATE LIST MERGED'!$A$1:$D$645</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RATE LIST MERGED'!$A$1:$D$640</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'RATE LIST MERGED'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="645">
   <si>
     <t>1817 PATRIKA</t>
   </si>
@@ -395,24 +395,15 @@
     <t>4202 PATRIKA</t>
   </si>
   <si>
-    <t>4202 PATRIKA - B (DC)</t>
-  </si>
-  <si>
     <t>4203 PATRIKA</t>
   </si>
   <si>
-    <t>4203 PATRIKA - B (DC)</t>
-  </si>
-  <si>
     <t>4204 PATRIKA</t>
   </si>
   <si>
     <t>4205 PATRIKA</t>
   </si>
   <si>
-    <t>4205 PATRIKA - B (DC)</t>
-  </si>
-  <si>
     <t>4206 PATRIKA</t>
   </si>
   <si>
@@ -494,9 +485,6 @@
     <t xml:space="preserve">4232 PATRIKA </t>
   </si>
   <si>
-    <t>4232 PATRIKA -B (dc)</t>
-  </si>
-  <si>
     <t>4233 PATRIKA</t>
   </si>
   <si>
@@ -659,9 +647,6 @@
     <t>5022 PATRIKA</t>
   </si>
   <si>
-    <t>5022 PATRIKA- B (DC)</t>
-  </si>
-  <si>
     <t>5023 PATRIKA</t>
   </si>
   <si>
@@ -1956,21 +1941,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>4202-B</t>
-  </si>
-  <si>
-    <t>4203-B</t>
-  </si>
-  <si>
-    <t>4205-B</t>
-  </si>
-  <si>
-    <t>4232-B</t>
-  </si>
-  <si>
-    <t>5022-B</t>
   </si>
   <si>
     <t>ITEM NO.</t>
@@ -1988,7 +1958,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2066,6 +2036,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2326,7 +2299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2334,43 +2307,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D645"/>
+  <dimension ref="A1:D640"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A612" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B640" sqref="B640"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.3984375" customWidth="1"/>
-    <col min="2" max="4" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2380,7 +2353,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2390,7 +2363,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2400,7 +2373,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2410,7 +2383,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2420,7 +2393,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2434,7 +2407,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2421,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2431,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2441,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2480,7 +2453,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2494,7 +2467,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2508,7 +2481,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2518,7 +2491,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2528,17 +2501,17 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2548,7 +2521,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2558,7 +2531,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2568,7 +2541,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2578,17 +2551,17 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2598,37 +2571,37 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2638,7 +2611,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2648,7 +2621,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2662,7 +2635,7 @@
         <v>4211</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2676,27 +2649,27 @@
         <v>4211</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2706,7 +2679,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2716,7 +2689,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2726,7 +2699,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2736,7 +2709,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2746,27 +2719,27 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2778,7 +2751,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2790,17 +2763,17 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2812,17 +2785,17 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2832,17 +2805,17 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2852,7 +2825,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2864,7 +2837,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2876,7 +2849,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2888,7 +2861,7 @@
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2898,7 +2871,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2908,7 +2881,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2918,7 +2891,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2928,7 +2901,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,7 +2911,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2948,7 +2921,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2958,7 +2931,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2968,7 +2941,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2982,7 +2955,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2996,7 +2969,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -3008,7 +2981,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -3020,7 +2993,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -3032,7 +3005,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -3046,7 +3019,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -3060,7 +3033,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -3074,7 +3047,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -3088,7 +3061,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -3098,7 +3071,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -3108,7 +3081,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -3120,7 +3093,7 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,7 +3105,7 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -3144,7 +3117,7 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -3154,7 +3127,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -3164,7 +3137,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -3174,7 +3147,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -3184,7 +3157,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -3192,7 +3165,7 @@
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -3200,7 +3173,7 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -3208,7 +3181,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -3216,7 +3189,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -3224,7 +3197,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -3232,7 +3205,7 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -3240,7 +3213,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -3248,7 +3221,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -3256,7 +3229,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -3264,7 +3237,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -3272,7 +3245,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -3280,7 +3253,7 @@
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -3288,7 +3261,7 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -3296,7 +3269,7 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -3304,7 +3277,7 @@
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -3312,7 +3285,7 @@
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -3320,7 +3293,7 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -3328,7 +3301,7 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -3336,7 +3309,7 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -3344,7 +3317,7 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -3352,7 +3325,7 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -3360,7 +3333,7 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3368,7 +3341,7 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -3376,7 +3349,7 @@
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -3384,7 +3357,7 @@
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -3392,7 +3365,7 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -3400,7 +3373,7 @@
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -3408,7 +3381,7 @@
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -3416,7 +3389,7 @@
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -3424,7 +3397,7 @@
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -3432,7 +3405,7 @@
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -3440,7 +3413,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -3448,7 +3421,7 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -3456,7 +3429,7 @@
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -3464,7 +3437,7 @@
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -3472,7 +3445,7 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -3480,7 +3453,7 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -3488,7 +3461,7 @@
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -3496,7 +3469,7 @@
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -3504,7 +3477,7 @@
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -3512,7 +3485,7 @@
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -3520,7 +3493,7 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -3528,7 +3501,7 @@
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -3536,7 +3509,7 @@
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -3544,7 +3517,7 @@
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -3552,7 +3525,7 @@
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -3560,19 +3533,19 @@
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -3583,10 +3556,10 @@
         <v>4203</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -3596,41 +3569,43 @@
       <c r="C126" s="2">
         <v>4203</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="D126" s="2">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B127" s="2">
+        <v>4201</v>
+      </c>
+      <c r="C127" s="2">
+        <v>4202</v>
+      </c>
+      <c r="D127" s="2">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="2">
-        <v>4201</v>
-      </c>
-      <c r="C128" s="2">
-        <v>4202</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2">
+        <v>4246</v>
+      </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -3638,41 +3613,49 @@
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>648</v>
-      </c>
+      <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B132" s="2">
+        <v>1876</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1877</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="2"/>
+      <c r="B133" s="2">
+        <v>4210</v>
+      </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="2"/>
+      <c r="B134" s="2">
+        <v>4209</v>
+      </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -3683,150 +3666,144 @@
         <v>1877</v>
       </c>
       <c r="D135" s="2">
-        <v>4207</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>4209</v>
-      </c>
-      <c r="C137" s="2"/>
+        <v>4214</v>
+      </c>
+      <c r="C137" s="2">
+        <v>4216</v>
+      </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>1876</v>
+        <v>4213</v>
       </c>
       <c r="C138" s="2">
-        <v>1877</v>
-      </c>
-      <c r="D138" s="2">
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+        <v>4215</v>
+      </c>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>4211</v>
-      </c>
-      <c r="C139" s="2"/>
+        <v>4214</v>
+      </c>
+      <c r="C139" s="2">
+        <v>4216</v>
+      </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="C140" s="2">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>4213</v>
-      </c>
-      <c r="C141" s="2">
-        <v>4215</v>
-      </c>
+        <v>4218</v>
+      </c>
+      <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>4214</v>
-      </c>
-      <c r="C142" s="2">
-        <v>4216</v>
-      </c>
+        <v>4217</v>
+      </c>
+      <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>4213</v>
-      </c>
-      <c r="C143" s="2">
-        <v>4215</v>
-      </c>
+        <v>4220</v>
+      </c>
+      <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="2">
-        <v>4217</v>
-      </c>
+      <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B146" s="2">
-        <v>4220</v>
-      </c>
+      <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>4219</v>
+        <v>4224</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="2"/>
+      <c r="B148" s="2">
+        <v>4223</v>
+      </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -3834,105 +3811,105 @@
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>4224</v>
+        <v>4227</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>4223</v>
+        <v>4226</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="B152" s="2">
+        <v>4219</v>
+      </c>
+      <c r="C152" s="2">
+        <v>4220</v>
+      </c>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="2">
-        <v>4227</v>
-      </c>
+      <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="2">
-        <v>4226</v>
-      </c>
+      <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>4219</v>
-      </c>
-      <c r="C155" s="2">
-        <v>4220</v>
-      </c>
+        <v>4241</v>
+      </c>
+      <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="B156" s="2">
+        <v>4247</v>
+      </c>
+      <c r="C156" s="2">
+        <v>4233</v>
+      </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="B157" s="2">
+        <v>4247</v>
+      </c>
+      <c r="C157" s="2">
+        <v>4232</v>
+      </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="2">
-        <v>4241</v>
-      </c>
+      <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C159" s="2">
-        <v>4233</v>
-      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
@@ -3940,93 +3917,89 @@
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C161" s="2">
-        <v>4232</v>
-      </c>
+      <c r="B161" s="2">
+        <v>4238</v>
+      </c>
+      <c r="C161" s="2"/>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="2"/>
+      <c r="B162" s="2">
+        <v>4237</v>
+      </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B163" s="2"/>
+      <c r="B163" s="2">
+        <v>4240</v>
+      </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B164" s="2"/>
+      <c r="B164" s="2">
+        <v>4239</v>
+      </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>4238</v>
+        <v>4231</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="2">
-        <v>4237</v>
-      </c>
+      <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="2">
-        <v>4240</v>
-      </c>
+      <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="2">
-        <v>4239</v>
-      </c>
+      <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B169" s="2">
-        <v>4231</v>
-      </c>
+      <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -4034,7 +4007,7 @@
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -4042,7 +4015,7 @@
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -4050,7 +4023,7 @@
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
@@ -4058,7 +4031,7 @@
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -4066,7 +4039,7 @@
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -4074,7 +4047,7 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -4082,7 +4055,7 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -4090,7 +4063,7 @@
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
@@ -4098,7 +4071,7 @@
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
@@ -4106,7 +4079,7 @@
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
@@ -4114,7 +4087,7 @@
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
@@ -4122,7 +4095,7 @@
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
@@ -4130,7 +4103,7 @@
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
@@ -4138,7 +4111,7 @@
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -4146,7 +4119,7 @@
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -4154,39 +4127,39 @@
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -4194,7 +4167,7 @@
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -4202,7 +4175,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -4210,7 +4183,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -4218,31 +4191,37 @@
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
     </row>
-    <row r="194" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="2"/>
+      <c r="B194" s="2">
+        <v>5013</v>
+      </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="2"/>
+      <c r="B195" s="2">
+        <v>5046</v>
+      </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="2"/>
+      <c r="B196" s="2">
+        <v>5011</v>
+      </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -4250,173 +4229,173 @@
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="2">
-        <v>5013</v>
-      </c>
+      <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B199" s="2">
-        <v>5046</v>
+        <v>5013</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B200" s="2">
-        <v>5011</v>
-      </c>
-      <c r="C200" s="2"/>
+        <v>5008</v>
+      </c>
+      <c r="C200" s="2">
+        <v>5012</v>
+      </c>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="2"/>
+      <c r="B201" s="2">
+        <v>5015</v>
+      </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="2"/>
+      <c r="B202" s="2">
+        <v>5014</v>
+      </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B203" s="2">
-        <v>5013</v>
+        <v>5017</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B204" s="2">
-        <v>5008</v>
-      </c>
-      <c r="C204" s="2">
-        <v>5012</v>
-      </c>
+        <v>5016</v>
+      </c>
+      <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B205" s="2">
-        <v>5015</v>
+        <v>5019</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="2">
-        <v>5014</v>
+      <c r="B206" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B207" s="2">
-        <v>5017</v>
-      </c>
-      <c r="C207" s="2"/>
+        <v>5043</v>
+      </c>
+      <c r="C207" s="2">
+        <v>5021</v>
+      </c>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B208" s="2">
-        <v>5016</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+        <v>5043</v>
+      </c>
+      <c r="C208" s="2">
+        <v>5022</v>
+      </c>
+      <c r="D208" s="2">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B209" s="2">
-        <v>5019</v>
-      </c>
-      <c r="C209" s="2"/>
+        <v>5021</v>
+      </c>
+      <c r="C209" s="2">
+        <v>5024</v>
+      </c>
       <c r="D209" s="2"/>
     </row>
-    <row r="210" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>188</v>
+      <c r="B210" s="2">
+        <v>5024</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B211" s="2">
-        <v>5043</v>
+        <v>5023</v>
       </c>
       <c r="C211" s="2">
-        <v>5021</v>
+        <v>5022</v>
       </c>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="2">
-        <v>5043</v>
-      </c>
-      <c r="C212" s="2">
-        <v>5022</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="2">
-        <v>5021</v>
-      </c>
-      <c r="C213" s="2">
-        <v>5024</v>
-      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -4424,45 +4403,47 @@
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B215" s="2">
-        <v>5024</v>
+        <v>5029</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B216" s="2">
-        <v>5023</v>
-      </c>
-      <c r="C216" s="2">
-        <v>5022</v>
-      </c>
+        <v>5028</v>
+      </c>
+      <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="2"/>
+      <c r="B217" s="2">
+        <v>5031</v>
+      </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="2"/>
+      <c r="B218" s="2">
+        <v>5030</v>
+      </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -4470,85 +4451,85 @@
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="2">
-        <v>5029</v>
-      </c>
+      <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B221" s="2">
-        <v>5028</v>
-      </c>
-      <c r="C221" s="2"/>
+        <v>5033</v>
+      </c>
+      <c r="C221" s="2">
+        <v>5035</v>
+      </c>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B222" s="2">
-        <v>5031</v>
+        <v>5034</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="2">
-        <v>5030</v>
-      </c>
+      <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="2"/>
+      <c r="B224" s="2">
+        <v>5040</v>
+      </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
     </row>
-    <row r="225" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="2"/>
+      <c r="B225" s="2">
+        <v>5039</v>
+      </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
     </row>
-    <row r="226" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B226" s="2">
-        <v>5033</v>
-      </c>
-      <c r="C226" s="2">
-        <v>5035</v>
-      </c>
+        <v>5038</v>
+      </c>
+      <c r="C226" s="2"/>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B227" s="2">
-        <v>5034</v>
+        <v>5037</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
     </row>
-    <row r="228" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -4556,47 +4537,45 @@
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
     </row>
-    <row r="229" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B229" s="2">
-        <v>5040</v>
+        <v>7296</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
     </row>
-    <row r="230" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="2">
-        <v>5039</v>
-      </c>
+      <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
     </row>
-    <row r="231" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B231" s="2">
-        <v>5038</v>
-      </c>
-      <c r="C231" s="2"/>
+        <v>5020</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5021</v>
+      </c>
       <c r="D231" s="2"/>
     </row>
-    <row r="232" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="2">
-        <v>5037</v>
-      </c>
+      <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
@@ -4604,17 +4583,17 @@
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
     </row>
-    <row r="234" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B234" s="2">
-        <v>7296</v>
+        <v>5009</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
     </row>
-    <row r="235" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
@@ -4622,19 +4601,15 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
     </row>
-    <row r="236" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="2">
-        <v>5020</v>
-      </c>
-      <c r="C236" s="2">
-        <v>5021</v>
-      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
       <c r="D236" s="2"/>
     </row>
-    <row r="237" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
@@ -4642,7 +4617,7 @@
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
     </row>
-    <row r="238" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
@@ -4650,17 +4625,15 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
     </row>
-    <row r="239" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="2">
-        <v>5009</v>
-      </c>
+      <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
     </row>
-    <row r="240" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
@@ -4668,7 +4641,7 @@
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
     </row>
-    <row r="241" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
@@ -4676,7 +4649,7 @@
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
     </row>
-    <row r="242" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
@@ -4684,7 +4657,7 @@
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
     </row>
-    <row r="243" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
@@ -4692,7 +4665,7 @@
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
     </row>
-    <row r="244" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>243</v>
       </c>
@@ -4700,7 +4673,7 @@
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
     </row>
-    <row r="245" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>244</v>
       </c>
@@ -4708,7 +4681,7 @@
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
     </row>
-    <row r="246" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>245</v>
       </c>
@@ -4716,7 +4689,7 @@
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
     </row>
-    <row r="247" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>246</v>
       </c>
@@ -4724,7 +4697,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
     </row>
-    <row r="248" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
@@ -4732,7 +4705,7 @@
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
     </row>
-    <row r="249" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>248</v>
       </c>
@@ -4740,23 +4713,27 @@
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
     </row>
-    <row r="250" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="2"/>
+      <c r="B250" s="2">
+        <v>5852</v>
+      </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
     </row>
-    <row r="251" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="2"/>
+      <c r="B251" s="2">
+        <v>5851</v>
+      </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
     </row>
-    <row r="252" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
@@ -4764,43 +4741,47 @@
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
     </row>
-    <row r="253" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B253" s="2"/>
+      <c r="B253" s="2">
+        <v>5855</v>
+      </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
     </row>
-    <row r="254" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="2"/>
+      <c r="B254" s="2">
+        <v>5854</v>
+      </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
     </row>
-    <row r="255" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B255" s="2">
-        <v>5852</v>
+        <v>5857</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
     </row>
-    <row r="256" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B256" s="2">
-        <v>5851</v>
+        <v>5856</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
     </row>
-    <row r="257" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>256</v>
       </c>
@@ -4808,47 +4789,41 @@
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
     </row>
-    <row r="258" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="2">
-        <v>5855</v>
-      </c>
+      <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
     </row>
-    <row r="259" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B259" s="2">
-        <v>5854</v>
+        <v>5869</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
     </row>
-    <row r="260" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="2">
-        <v>5857</v>
-      </c>
+      <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
     </row>
-    <row r="261" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="2">
-        <v>5856</v>
-      </c>
+      <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
     </row>
-    <row r="262" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>261</v>
       </c>
@@ -4856,7 +4831,7 @@
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
     </row>
-    <row r="263" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>262</v>
       </c>
@@ -4864,25 +4839,25 @@
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
     </row>
-    <row r="264" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="2">
-        <v>5869</v>
-      </c>
+      <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
     </row>
-    <row r="265" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="2"/>
+      <c r="B265" s="2">
+        <v>5877</v>
+      </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
     </row>
-    <row r="266" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>265</v>
       </c>
@@ -4890,7 +4865,7 @@
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
     </row>
-    <row r="267" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>266</v>
       </c>
@@ -4898,41 +4873,47 @@
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
     </row>
-    <row r="268" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="2"/>
+      <c r="B268" s="2">
+        <v>5860</v>
+      </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
     </row>
-    <row r="269" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B269" s="2"/>
+      <c r="B269" s="2">
+        <v>5871</v>
+      </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
     </row>
-    <row r="270" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B270" s="2">
-        <v>5877</v>
+        <v>5870</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
     </row>
-    <row r="271" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B271" s="2"/>
+      <c r="B271" s="2">
+        <v>5874</v>
+      </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
     </row>
-    <row r="272" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>271</v>
       </c>
@@ -4940,47 +4921,47 @@
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
     </row>
-    <row r="273" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B273" s="2">
-        <v>5860</v>
+        <v>5872</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
     </row>
-    <row r="274" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B274" s="2">
-        <v>5871</v>
+        <v>5876</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
     </row>
-    <row r="275" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B275" s="2">
-        <v>5870</v>
+        <v>5875</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
     </row>
-    <row r="276" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B276" s="2">
-        <v>5874</v>
+        <v>5866</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
     </row>
-    <row r="277" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>276</v>
       </c>
@@ -4988,55 +4969,53 @@
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
     </row>
-    <row r="278" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B278" s="2">
-        <v>5872</v>
-      </c>
+      <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
     </row>
-    <row r="279" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B279" s="2">
-        <v>5876</v>
-      </c>
+      <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
     </row>
-    <row r="280" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B280" s="2">
-        <v>5875</v>
+        <v>5882</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
     </row>
-    <row r="281" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B281" s="2">
-        <v>5866</v>
+        <v>5881</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
     </row>
-    <row r="282" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B282" s="2"/>
+      <c r="B282" s="2">
+        <v>5890</v>
+      </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
     </row>
-    <row r="283" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>282</v>
       </c>
@@ -5044,7 +5023,7 @@
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
     </row>
-    <row r="284" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>283</v>
       </c>
@@ -5052,37 +5031,35 @@
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
     </row>
-    <row r="285" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B285" s="2">
-        <v>5882</v>
+        <v>5888</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
     </row>
-    <row r="286" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B286" s="2">
-        <v>5881</v>
-      </c>
+      <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
     </row>
-    <row r="287" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B287" s="2">
-        <v>5890</v>
+        <v>5886</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
     </row>
-    <row r="288" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>287</v>
       </c>
@@ -5090,7 +5067,7 @@
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
     </row>
-    <row r="289" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>288</v>
       </c>
@@ -5098,35 +5075,35 @@
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
     </row>
-    <row r="290" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B290" s="2">
-        <v>5888</v>
-      </c>
+      <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
     </row>
-    <row r="291" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B291" s="2"/>
+      <c r="B291" s="2">
+        <v>5878</v>
+      </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
     </row>
-    <row r="292" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B292" s="2">
-        <v>5886</v>
+        <v>5905</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
     </row>
-    <row r="293" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>292</v>
       </c>
@@ -5134,71 +5111,75 @@
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
     </row>
-    <row r="294" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B294" s="2"/>
+      <c r="B294" s="2">
+        <v>5896</v>
+      </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
     </row>
-    <row r="295" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B295" s="2"/>
+      <c r="B295" s="2">
+        <v>5895</v>
+      </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
     </row>
-    <row r="296" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B296" s="2">
-        <v>5878</v>
-      </c>
+      <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
     </row>
-    <row r="297" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B297" s="2">
-        <v>5905</v>
-      </c>
-      <c r="C297" s="2"/>
+        <v>5899</v>
+      </c>
+      <c r="C297" s="2">
+        <v>5900</v>
+      </c>
       <c r="D297" s="2"/>
     </row>
-    <row r="298" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B298" s="2"/>
+      <c r="B298" s="2">
+        <v>5900</v>
+      </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
     </row>
-    <row r="299" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B299" s="2">
-        <v>5896</v>
+        <v>5899</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
     </row>
-    <row r="300" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B300" s="2">
-        <v>5895</v>
-      </c>
+      <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
     </row>
-    <row r="301" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>300</v>
       </c>
@@ -5206,39 +5187,31 @@
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
     </row>
-    <row r="302" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B302" s="2">
-        <v>5899</v>
-      </c>
-      <c r="C302" s="2">
-        <v>5900</v>
-      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
       <c r="D302" s="2"/>
     </row>
-    <row r="303" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B303" s="2">
-        <v>5900</v>
-      </c>
+      <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
     </row>
-    <row r="304" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B304" s="2">
-        <v>5899</v>
-      </c>
+      <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
     </row>
-    <row r="305" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>304</v>
       </c>
@@ -5246,23 +5219,29 @@
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
     </row>
-    <row r="306" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
+      <c r="B306" s="2">
+        <v>5927</v>
+      </c>
+      <c r="C306" s="2">
+        <v>7322</v>
+      </c>
       <c r="D306" s="2"/>
     </row>
-    <row r="307" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B307" s="2"/>
+      <c r="B307" s="2">
+        <v>5912</v>
+      </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
     </row>
-    <row r="308" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>307</v>
       </c>
@@ -5270,7 +5249,7 @@
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
     </row>
-    <row r="309" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>308</v>
       </c>
@@ -5278,7 +5257,7 @@
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
     </row>
-    <row r="310" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>309</v>
       </c>
@@ -5286,29 +5265,27 @@
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
     </row>
-    <row r="311" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B311" s="2">
-        <v>5927</v>
+        <v>5908</v>
       </c>
       <c r="C311" s="2">
-        <v>7322</v>
+        <v>5936</v>
       </c>
       <c r="D311" s="2"/>
     </row>
-    <row r="312" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B312" s="2">
-        <v>5912</v>
-      </c>
+      <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
     </row>
-    <row r="313" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>312</v>
       </c>
@@ -5316,7 +5293,7 @@
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
     </row>
-    <row r="314" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>313</v>
       </c>
@@ -5324,7 +5301,7 @@
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
     </row>
-    <row r="315" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>314</v>
       </c>
@@ -5332,27 +5309,25 @@
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
     </row>
-    <row r="316" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B316" s="2">
-        <v>5908</v>
-      </c>
-      <c r="C316" s="2">
-        <v>5936</v>
-      </c>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
       <c r="D316" s="2"/>
     </row>
-    <row r="317" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B317" s="2"/>
+      <c r="B317" s="2">
+        <v>5921</v>
+      </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
     </row>
-    <row r="318" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>317</v>
       </c>
@@ -5360,7 +5335,7 @@
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
     </row>
-    <row r="319" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>318</v>
       </c>
@@ -5368,15 +5343,17 @@
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
     </row>
-    <row r="320" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B320" s="2"/>
+      <c r="B320" s="2">
+        <v>5918</v>
+      </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
     </row>
-    <row r="321" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>320</v>
       </c>
@@ -5384,17 +5361,15 @@
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
     </row>
-    <row r="322" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B322" s="2">
-        <v>5921</v>
-      </c>
+      <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
     </row>
-    <row r="323" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>322</v>
       </c>
@@ -5402,7 +5377,7 @@
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
     </row>
-    <row r="324" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>323</v>
       </c>
@@ -5410,25 +5385,25 @@
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
     </row>
-    <row r="325" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B325" s="2">
-        <v>5918</v>
-      </c>
+      <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
     </row>
-    <row r="326" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B326" s="2"/>
+      <c r="B326" s="2">
+        <v>5907</v>
+      </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
     </row>
-    <row r="327" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>326</v>
       </c>
@@ -5436,23 +5411,27 @@
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
     </row>
-    <row r="328" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B328" s="2"/>
+      <c r="B328" s="2">
+        <v>5930</v>
+      </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
     </row>
-    <row r="329" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B329" s="2"/>
+      <c r="B329" s="2">
+        <v>5929</v>
+      </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
     </row>
-    <row r="330" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>329</v>
       </c>
@@ -5460,17 +5439,17 @@
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
     </row>
-    <row r="331" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B331" s="2">
-        <v>5907</v>
+        <v>7325</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
     </row>
-    <row r="332" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>331</v>
       </c>
@@ -5478,53 +5457,51 @@
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
     </row>
-    <row r="333" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B333" s="2">
-        <v>5930</v>
-      </c>
+      <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
     </row>
-    <row r="334" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B334" s="2">
-        <v>5929</v>
-      </c>
+      <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
     </row>
-    <row r="335" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B335" s="2"/>
+      <c r="B335" s="2">
+        <v>5912</v>
+      </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
     </row>
-    <row r="336" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B336" s="2">
-        <v>7325</v>
-      </c>
+      <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
     </row>
-    <row r="337" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B337" s="2"/>
+      <c r="B337" s="2">
+        <v>5946</v>
+      </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
     </row>
-    <row r="338" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>337</v>
       </c>
@@ -5532,7 +5509,7 @@
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
     </row>
-    <row r="339" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>338</v>
       </c>
@@ -5540,17 +5517,15 @@
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
     </row>
-    <row r="340" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B340" s="2">
-        <v>5912</v>
-      </c>
+      <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
     </row>
-    <row r="341" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>340</v>
       </c>
@@ -5558,41 +5533,47 @@
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
     </row>
-    <row r="342" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B342" s="2">
-        <v>5946</v>
-      </c>
+      <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
     </row>
-    <row r="343" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
+      <c r="B343" s="2">
+        <v>7323</v>
+      </c>
+      <c r="C343" s="2">
+        <v>5937</v>
+      </c>
       <c r="D343" s="2"/>
     </row>
-    <row r="344" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B344" s="2"/>
+      <c r="B344" s="2">
+        <v>7327</v>
+      </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
     </row>
-    <row r="345" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B345" s="2"/>
+      <c r="B345" s="2">
+        <v>5938</v>
+      </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
     </row>
-    <row r="346" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>345</v>
       </c>
@@ -5600,7 +5581,7 @@
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
     </row>
-    <row r="347" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>346</v>
       </c>
@@ -5608,39 +5589,31 @@
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
     </row>
-    <row r="348" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B348" s="2">
-        <v>7323</v>
-      </c>
-      <c r="C348" s="2">
-        <v>5937</v>
-      </c>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
       <c r="D348" s="2"/>
     </row>
-    <row r="349" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B349" s="2">
-        <v>7327</v>
-      </c>
+      <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
     </row>
-    <row r="350" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B350" s="2">
-        <v>5938</v>
-      </c>
+      <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
     </row>
-    <row r="351" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>350</v>
       </c>
@@ -5648,7 +5621,7 @@
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
     </row>
-    <row r="352" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>351</v>
       </c>
@@ -5656,7 +5629,7 @@
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
     </row>
-    <row r="353" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>352</v>
       </c>
@@ -5664,7 +5637,7 @@
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
     </row>
-    <row r="354" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>353</v>
       </c>
@@ -5672,7 +5645,7 @@
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
     </row>
-    <row r="355" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>354</v>
       </c>
@@ -5680,7 +5653,7 @@
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
     </row>
-    <row r="356" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>355</v>
       </c>
@@ -5688,7 +5661,7 @@
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
     </row>
-    <row r="357" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>356</v>
       </c>
@@ -5696,7 +5669,7 @@
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
     </row>
-    <row r="358" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>357</v>
       </c>
@@ -5704,7 +5677,7 @@
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
     </row>
-    <row r="359" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>358</v>
       </c>
@@ -5712,7 +5685,7 @@
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
     </row>
-    <row r="360" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>359</v>
       </c>
@@ -5720,7 +5693,7 @@
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
     </row>
-    <row r="361" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>360</v>
       </c>
@@ -5728,7 +5701,7 @@
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
     </row>
-    <row r="362" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>361</v>
       </c>
@@ -5736,7 +5709,7 @@
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
     </row>
-    <row r="363" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>362</v>
       </c>
@@ -5744,7 +5717,7 @@
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
     </row>
-    <row r="364" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>363</v>
       </c>
@@ -5752,7 +5725,7 @@
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
     </row>
-    <row r="365" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>364</v>
       </c>
@@ -5760,7 +5733,7 @@
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
     </row>
-    <row r="366" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>365</v>
       </c>
@@ -5768,7 +5741,7 @@
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
     </row>
-    <row r="367" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>366</v>
       </c>
@@ -5776,7 +5749,7 @@
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
     </row>
-    <row r="368" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>367</v>
       </c>
@@ -5784,7 +5757,7 @@
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
     </row>
-    <row r="369" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>368</v>
       </c>
@@ -5792,7 +5765,7 @@
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
     </row>
-    <row r="370" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>369</v>
       </c>
@@ -5800,7 +5773,7 @@
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
     </row>
-    <row r="371" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>370</v>
       </c>
@@ -5808,7 +5781,7 @@
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
     </row>
-    <row r="372" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>371</v>
       </c>
@@ -5816,7 +5789,7 @@
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
     </row>
-    <row r="373" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>372</v>
       </c>
@@ -5824,7 +5797,7 @@
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
     </row>
-    <row r="374" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>373</v>
       </c>
@@ -5832,7 +5805,7 @@
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
     </row>
-    <row r="375" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>374</v>
       </c>
@@ -5840,7 +5813,7 @@
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
     </row>
-    <row r="376" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>375</v>
       </c>
@@ -5848,7 +5821,7 @@
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
     </row>
-    <row r="377" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>376</v>
       </c>
@@ -5856,7 +5829,7 @@
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
     </row>
-    <row r="378" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>377</v>
       </c>
@@ -5864,7 +5837,7 @@
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
     </row>
-    <row r="379" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>378</v>
       </c>
@@ -5872,7 +5845,7 @@
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
     </row>
-    <row r="380" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>379</v>
       </c>
@@ -5880,7 +5853,7 @@
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
     </row>
-    <row r="381" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>380</v>
       </c>
@@ -5888,7 +5861,7 @@
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
     </row>
-    <row r="382" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>381</v>
       </c>
@@ -5896,7 +5869,7 @@
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
     </row>
-    <row r="383" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>382</v>
       </c>
@@ -5904,7 +5877,7 @@
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
     </row>
-    <row r="384" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>383</v>
       </c>
@@ -5912,7 +5885,7 @@
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
     </row>
-    <row r="385" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>384</v>
       </c>
@@ -5920,7 +5893,7 @@
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
     </row>
-    <row r="386" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>385</v>
       </c>
@@ -5928,7 +5901,7 @@
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
     </row>
-    <row r="387" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>386</v>
       </c>
@@ -5936,7 +5909,7 @@
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
     </row>
-    <row r="388" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>387</v>
       </c>
@@ -5944,7 +5917,7 @@
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
     </row>
-    <row r="389" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>388</v>
       </c>
@@ -5952,7 +5925,7 @@
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
     </row>
-    <row r="390" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>389</v>
       </c>
@@ -5960,7 +5933,7 @@
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
     </row>
-    <row r="391" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>390</v>
       </c>
@@ -5968,7 +5941,7 @@
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
     </row>
-    <row r="392" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>391</v>
       </c>
@@ -5976,7 +5949,7 @@
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
     </row>
-    <row r="393" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>392</v>
       </c>
@@ -5984,7 +5957,7 @@
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
     </row>
-    <row r="394" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>393</v>
       </c>
@@ -5992,7 +5965,7 @@
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
     </row>
-    <row r="395" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>394</v>
       </c>
@@ -6000,7 +5973,7 @@
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
     </row>
-    <row r="396" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>395</v>
       </c>
@@ -6008,7 +5981,7 @@
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
     </row>
-    <row r="397" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>396</v>
       </c>
@@ -6016,7 +5989,7 @@
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
     </row>
-    <row r="398" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>397</v>
       </c>
@@ -6024,7 +5997,7 @@
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
     </row>
-    <row r="399" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>398</v>
       </c>
@@ -6032,7 +6005,7 @@
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
     </row>
-    <row r="400" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>399</v>
       </c>
@@ -6040,23 +6013,27 @@
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
     </row>
-    <row r="401" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B401" s="2"/>
+      <c r="B401" s="2">
+        <v>7072</v>
+      </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
     </row>
-    <row r="402" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B402" s="2"/>
+      <c r="B402" s="2">
+        <v>7071</v>
+      </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
     </row>
-    <row r="403" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>402</v>
       </c>
@@ -6064,31 +6041,41 @@
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
     </row>
-    <row r="404" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B404" s="2"/>
+      <c r="B404" s="2">
+        <v>7252</v>
+      </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
     </row>
-    <row r="405" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B405" s="2"/>
+      <c r="B405" s="2">
+        <v>7251</v>
+      </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
     </row>
-    <row r="406" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-    </row>
-    <row r="407" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B406" s="2">
+        <v>7347</v>
+      </c>
+      <c r="C406" s="2">
+        <v>7338</v>
+      </c>
+      <c r="D406" s="2">
+        <v>7339</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>406</v>
       </c>
@@ -6096,7 +6083,7 @@
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
     </row>
-    <row r="408" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>407</v>
       </c>
@@ -6104,7 +6091,7 @@
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
     </row>
-    <row r="409" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>408</v>
       </c>
@@ -6112,7 +6099,7 @@
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
     </row>
-    <row r="410" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>409</v>
       </c>
@@ -6120,7 +6107,7 @@
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
     </row>
-    <row r="411" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>410</v>
       </c>
@@ -6128,23 +6115,27 @@
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
     </row>
-    <row r="412" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B412" s="2"/>
+      <c r="B412" s="2">
+        <v>7259</v>
+      </c>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
     </row>
-    <row r="413" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B413" s="2"/>
+      <c r="B413" s="2">
+        <v>7258</v>
+      </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
     </row>
-    <row r="414" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>413</v>
       </c>
@@ -6152,7 +6143,7 @@
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
     </row>
-    <row r="415" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>414</v>
       </c>
@@ -6160,7 +6151,7 @@
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
     </row>
-    <row r="416" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>415</v>
       </c>
@@ -6168,23 +6159,27 @@
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
     </row>
-    <row r="417" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B417" s="2"/>
+      <c r="B417" s="2">
+        <v>7264</v>
+      </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
     </row>
-    <row r="418" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B418" s="2"/>
+      <c r="B418" s="2">
+        <v>7263</v>
+      </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
     </row>
-    <row r="419" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>418</v>
       </c>
@@ -6192,31 +6187,41 @@
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
     </row>
-    <row r="420" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
+      <c r="B420" s="2">
+        <v>7267</v>
+      </c>
+      <c r="C420" s="2">
+        <v>7335</v>
+      </c>
       <c r="D420" s="2"/>
     </row>
-    <row r="421" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
+      <c r="B421" s="2">
+        <v>7266</v>
+      </c>
+      <c r="C421" s="2">
+        <v>7335</v>
+      </c>
       <c r="D421" s="2"/>
     </row>
-    <row r="422" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B422" s="2"/>
+      <c r="B422" s="2">
+        <v>7287</v>
+      </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
     </row>
-    <row r="423" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>422</v>
       </c>
@@ -6224,15 +6229,17 @@
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
     </row>
-    <row r="424" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B424" s="2"/>
+      <c r="B424" s="2">
+        <v>7278</v>
+      </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
     </row>
-    <row r="425" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>424</v>
       </c>
@@ -6240,23 +6247,27 @@
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
     </row>
-    <row r="426" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B426" s="2"/>
+      <c r="B426" s="2">
+        <v>7273</v>
+      </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
     </row>
-    <row r="427" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B427" s="2"/>
+      <c r="B427" s="2">
+        <v>7272</v>
+      </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
     </row>
-    <row r="428" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>427</v>
       </c>
@@ -6264,23 +6275,27 @@
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
     </row>
-    <row r="429" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B429" s="2"/>
+      <c r="B429" s="2">
+        <v>7276</v>
+      </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
     </row>
-    <row r="430" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B430" s="2"/>
+      <c r="B430" s="2">
+        <v>7275</v>
+      </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
     </row>
-    <row r="431" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>430</v>
       </c>
@@ -6288,23 +6303,27 @@
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
     </row>
-    <row r="432" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B432" s="2"/>
+      <c r="B432" s="2">
+        <v>7270</v>
+      </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
     </row>
-    <row r="433" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B433" s="2"/>
+      <c r="B433" s="2">
+        <v>7348</v>
+      </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
     </row>
-    <row r="434" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>433</v>
       </c>
@@ -6312,7 +6331,7 @@
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
     </row>
-    <row r="435" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>434</v>
       </c>
@@ -6320,7 +6339,7 @@
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
     </row>
-    <row r="436" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>435</v>
       </c>
@@ -6328,7 +6347,7 @@
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
     </row>
-    <row r="437" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>436</v>
       </c>
@@ -6336,23 +6355,27 @@
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
     </row>
-    <row r="438" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B438" s="2"/>
+      <c r="B438" s="2">
+        <v>7284</v>
+      </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
     </row>
-    <row r="439" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B439" s="2"/>
+      <c r="B439" s="2">
+        <v>7283</v>
+      </c>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
     </row>
-    <row r="440" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>439</v>
       </c>
@@ -6360,7 +6383,7 @@
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
     </row>
-    <row r="441" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>440</v>
       </c>
@@ -6368,15 +6391,17 @@
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
     </row>
-    <row r="442" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B442" s="2"/>
+      <c r="B442" s="2">
+        <v>7268</v>
+      </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
     </row>
-    <row r="443" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>442</v>
       </c>
@@ -6384,7 +6409,7 @@
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
     </row>
-    <row r="444" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>443</v>
       </c>
@@ -6392,7 +6417,7 @@
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
     </row>
-    <row r="445" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>444</v>
       </c>
@@ -6400,7 +6425,7 @@
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
     </row>
-    <row r="446" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>445</v>
       </c>
@@ -6408,7 +6433,7 @@
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
     </row>
-    <row r="447" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>446</v>
       </c>
@@ -6416,7 +6441,7 @@
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
     </row>
-    <row r="448" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>447</v>
       </c>
@@ -6424,7 +6449,7 @@
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
     </row>
-    <row r="449" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>448</v>
       </c>
@@ -6432,7 +6457,7 @@
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
     </row>
-    <row r="450" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>449</v>
       </c>
@@ -6440,7 +6465,7 @@
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
     </row>
-    <row r="451" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>450</v>
       </c>
@@ -6448,7 +6473,7 @@
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
     </row>
-    <row r="452" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>451</v>
       </c>
@@ -6456,7 +6481,7 @@
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
     </row>
-    <row r="453" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>452</v>
       </c>
@@ -6464,7 +6489,7 @@
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
     </row>
-    <row r="454" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>453</v>
       </c>
@@ -6472,7 +6497,7 @@
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
     </row>
-    <row r="455" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>454</v>
       </c>
@@ -6480,7 +6505,7 @@
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
     </row>
-    <row r="456" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>455</v>
       </c>
@@ -6488,15 +6513,17 @@
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
     </row>
-    <row r="457" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B457" s="2"/>
+      <c r="B457" s="2">
+        <v>7330</v>
+      </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
     </row>
-    <row r="458" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>457</v>
       </c>
@@ -6504,7 +6531,7 @@
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
     </row>
-    <row r="459" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>458</v>
       </c>
@@ -6512,7 +6539,7 @@
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
     </row>
-    <row r="460" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>459</v>
       </c>
@@ -6520,31 +6547,37 @@
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
     </row>
-    <row r="461" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B461" s="2"/>
+      <c r="B461" s="2">
+        <v>7287</v>
+      </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
     </row>
-    <row r="462" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B462" s="2"/>
+      <c r="B462" s="2">
+        <v>7308</v>
+      </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
     </row>
-    <row r="463" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B463" s="2"/>
+      <c r="B463" s="2">
+        <v>7307</v>
+      </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
     </row>
-    <row r="464" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>463</v>
       </c>
@@ -6552,7 +6585,7 @@
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
     </row>
-    <row r="465" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>464</v>
       </c>
@@ -6560,7 +6593,7 @@
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
     </row>
-    <row r="466" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>465</v>
       </c>
@@ -6568,7 +6601,7 @@
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
     </row>
-    <row r="467" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>466</v>
       </c>
@@ -6576,7 +6609,7 @@
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
     </row>
-    <row r="468" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>467</v>
       </c>
@@ -6584,7 +6617,7 @@
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
     </row>
-    <row r="469" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>468</v>
       </c>
@@ -6592,7 +6625,7 @@
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
     </row>
-    <row r="470" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>469</v>
       </c>
@@ -6600,7 +6633,7 @@
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
     </row>
-    <row r="471" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>470</v>
       </c>
@@ -6608,7 +6641,7 @@
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
     </row>
-    <row r="472" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>471</v>
       </c>
@@ -6616,15 +6649,17 @@
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
     </row>
-    <row r="473" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B473" s="2"/>
+      <c r="B473" s="2">
+        <v>7337</v>
+      </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
     </row>
-    <row r="474" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>473</v>
       </c>
@@ -6632,7 +6667,7 @@
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
     </row>
-    <row r="475" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>474</v>
       </c>
@@ -6640,7 +6675,7 @@
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
     </row>
-    <row r="476" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>475</v>
       </c>
@@ -6648,23 +6683,29 @@
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
     </row>
-    <row r="477" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B477" s="2"/>
+      <c r="B477" s="2">
+        <v>5907</v>
+      </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
     </row>
-    <row r="478" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B478" s="2"/>
-      <c r="C478" s="2"/>
+      <c r="B478" s="2">
+        <v>5944</v>
+      </c>
+      <c r="C478" s="2">
+        <v>5937</v>
+      </c>
       <c r="D478" s="2"/>
     </row>
-    <row r="479" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>478</v>
       </c>
@@ -6672,15 +6713,17 @@
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
     </row>
-    <row r="480" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B480" s="2"/>
+      <c r="B480" s="2">
+        <v>5932</v>
+      </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
     </row>
-    <row r="481" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>480</v>
       </c>
@@ -6688,29 +6731,23 @@
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
     </row>
-    <row r="482" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B482" s="2">
-        <v>5907</v>
-      </c>
+      <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
     </row>
-    <row r="483" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B483" s="2">
-        <v>5944</v>
-      </c>
-      <c r="C483" s="2">
-        <v>5937</v>
-      </c>
+      <c r="B483" s="2"/>
+      <c r="C483" s="2"/>
       <c r="D483" s="2"/>
     </row>
-    <row r="484" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>483</v>
       </c>
@@ -6718,25 +6755,25 @@
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
     </row>
-    <row r="485" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B485" s="2">
-        <v>5932</v>
-      </c>
+      <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
     </row>
-    <row r="486" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B486" s="2"/>
+      <c r="B486" s="2">
+        <v>7302</v>
+      </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
     </row>
-    <row r="487" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>486</v>
       </c>
@@ -6744,7 +6781,7 @@
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
     </row>
-    <row r="488" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>487</v>
       </c>
@@ -6752,7 +6789,7 @@
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
     </row>
-    <row r="489" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>488</v>
       </c>
@@ -6760,7 +6797,7 @@
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
     </row>
-    <row r="490" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>489</v>
       </c>
@@ -6768,7 +6805,7 @@
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
     </row>
-    <row r="491" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>490</v>
       </c>
@@ -6776,7 +6813,7 @@
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
     </row>
-    <row r="492" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>491</v>
       </c>
@@ -6784,15 +6821,17 @@
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
     </row>
-    <row r="493" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B493" s="2"/>
+      <c r="B493" s="2">
+        <v>7318</v>
+      </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
     </row>
-    <row r="494" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>493</v>
       </c>
@@ -6800,7 +6839,7 @@
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
     </row>
-    <row r="495" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>494</v>
       </c>
@@ -6808,23 +6847,27 @@
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
     </row>
-    <row r="496" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B496" s="2"/>
+      <c r="B496" s="2">
+        <v>7341</v>
+      </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
     </row>
-    <row r="497" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B497" s="2"/>
+      <c r="B497" s="2">
+        <v>7340</v>
+      </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
     </row>
-    <row r="498" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>497</v>
       </c>
@@ -6832,31 +6875,43 @@
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
     </row>
-    <row r="499" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B499" s="2"/>
-      <c r="C499" s="2"/>
+      <c r="B499" s="2">
+        <v>7345</v>
+      </c>
+      <c r="C499" s="2">
+        <v>7344</v>
+      </c>
       <c r="D499" s="2"/>
     </row>
-    <row r="500" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B500" s="2"/>
-      <c r="C500" s="2"/>
+      <c r="B500" s="2">
+        <v>7343</v>
+      </c>
+      <c r="C500" s="2">
+        <v>7345</v>
+      </c>
       <c r="D500" s="2"/>
     </row>
-    <row r="501" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B501" s="2"/>
-      <c r="C501" s="2"/>
+      <c r="B501" s="2">
+        <v>7343</v>
+      </c>
+      <c r="C501" s="2">
+        <v>7344</v>
+      </c>
       <c r="D501" s="2"/>
     </row>
-    <row r="502" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>501</v>
       </c>
@@ -6864,7 +6919,7 @@
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
     </row>
-    <row r="503" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>502</v>
       </c>
@@ -6872,7 +6927,7 @@
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
     </row>
-    <row r="504" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>503</v>
       </c>
@@ -6880,7 +6935,7 @@
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
     </row>
-    <row r="505" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>504</v>
       </c>
@@ -6888,7 +6943,7 @@
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
     </row>
-    <row r="506" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>505</v>
       </c>
@@ -6896,7 +6951,7 @@
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
     </row>
-    <row r="507" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>506</v>
       </c>
@@ -6904,7 +6959,7 @@
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
     </row>
-    <row r="508" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>507</v>
       </c>
@@ -6912,7 +6967,7 @@
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
     </row>
-    <row r="509" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>508</v>
       </c>
@@ -6920,7 +6975,7 @@
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
     </row>
-    <row r="510" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>509</v>
       </c>
@@ -6928,7 +6983,7 @@
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
     </row>
-    <row r="511" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>510</v>
       </c>
@@ -6936,63 +6991,87 @@
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
     </row>
-    <row r="512" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B512" s="2"/>
-      <c r="C512" s="2"/>
+      <c r="B512" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C512" s="2">
+        <v>9002</v>
+      </c>
       <c r="D512" s="2"/>
     </row>
-    <row r="513" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B513" s="2"/>
-      <c r="C513" s="2"/>
+      <c r="B513" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C513" s="2">
+        <v>9002</v>
+      </c>
       <c r="D513" s="2"/>
     </row>
-    <row r="514" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B514" s="2"/>
-      <c r="C514" s="2"/>
+      <c r="B514" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C514" s="2">
+        <v>9001</v>
+      </c>
       <c r="D514" s="2"/>
     </row>
-    <row r="515" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B515" s="2"/>
+      <c r="B515" s="2">
+        <v>9004</v>
+      </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
     </row>
-    <row r="516" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B516" s="2"/>
+      <c r="B516" s="2">
+        <v>9003</v>
+      </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
     </row>
-    <row r="517" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B517" s="2"/>
-      <c r="C517" s="2"/>
+      <c r="B517" s="2">
+        <v>9006</v>
+      </c>
+      <c r="C517" s="2">
+        <v>9010</v>
+      </c>
       <c r="D517" s="2"/>
     </row>
-    <row r="518" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B518" s="2"/>
-      <c r="C518" s="2"/>
+      <c r="B518" s="2">
+        <v>9005</v>
+      </c>
+      <c r="C518" s="2">
+        <v>9010</v>
+      </c>
       <c r="D518" s="2"/>
     </row>
-    <row r="519" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>518</v>
       </c>
@@ -7000,7 +7079,7 @@
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
     </row>
-    <row r="520" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>519</v>
       </c>
@@ -7008,7 +7087,7 @@
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
     </row>
-    <row r="521" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>520</v>
       </c>
@@ -7016,47 +7095,63 @@
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
     </row>
-    <row r="522" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B522" s="2"/>
-      <c r="C522" s="2"/>
+      <c r="B522" s="2">
+        <v>9005</v>
+      </c>
+      <c r="C522" s="2">
+        <v>9006</v>
+      </c>
       <c r="D522" s="2"/>
     </row>
-    <row r="523" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B523" s="2"/>
-      <c r="C523" s="2"/>
+      <c r="B523" s="2">
+        <v>9096</v>
+      </c>
+      <c r="C523" s="2">
+        <v>9012</v>
+      </c>
       <c r="D523" s="2"/>
     </row>
-    <row r="524" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B524" s="2"/>
-      <c r="C524" s="2"/>
+      <c r="B524" s="2">
+        <v>9011</v>
+      </c>
+      <c r="C524" s="2">
+        <v>9096</v>
+      </c>
       <c r="D524" s="2"/>
     </row>
-    <row r="525" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B525" s="2"/>
+      <c r="B525" s="2">
+        <v>9014</v>
+      </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
     </row>
-    <row r="526" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B526" s="2"/>
+      <c r="B526" s="2">
+        <v>9013</v>
+      </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
     </row>
-    <row r="527" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>526</v>
       </c>
@@ -7064,7 +7159,7 @@
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
     </row>
-    <row r="528" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>527</v>
       </c>
@@ -7072,23 +7167,27 @@
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
     </row>
-    <row r="529" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B529" s="2"/>
+      <c r="B529" s="2">
+        <v>9018</v>
+      </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
     </row>
-    <row r="530" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B530" s="2"/>
+      <c r="B530" s="2">
+        <v>9017</v>
+      </c>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
     </row>
-    <row r="531" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>530</v>
       </c>
@@ -7096,7 +7195,7 @@
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
     </row>
-    <row r="532" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>531</v>
       </c>
@@ -7104,23 +7203,27 @@
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
     </row>
-    <row r="533" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B533" s="2"/>
+      <c r="B533" s="2">
+        <v>9022</v>
+      </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
     </row>
-    <row r="534" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B534" s="2"/>
+      <c r="B534" s="2">
+        <v>9021</v>
+      </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
     </row>
-    <row r="535" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>534</v>
       </c>
@@ -7128,7 +7231,7 @@
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
     </row>
-    <row r="536" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>535</v>
       </c>
@@ -7136,31 +7239,39 @@
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
     </row>
-    <row r="537" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B537" s="2"/>
+      <c r="B537" s="2">
+        <v>9026</v>
+      </c>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
     </row>
-    <row r="538" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B538" s="2"/>
+      <c r="B538" s="2">
+        <v>9025</v>
+      </c>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
     </row>
-    <row r="539" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B539" s="2"/>
-      <c r="C539" s="2"/>
+      <c r="B539" s="2">
+        <v>9085</v>
+      </c>
+      <c r="C539" s="2">
+        <v>9037</v>
+      </c>
       <c r="D539" s="2"/>
     </row>
-    <row r="540" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>539</v>
       </c>
@@ -7168,31 +7279,41 @@
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
     </row>
-    <row r="541" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B541" s="2"/>
-      <c r="C541" s="2"/>
+      <c r="B541" s="2">
+        <v>9030</v>
+      </c>
+      <c r="C541" s="2">
+        <v>9040</v>
+      </c>
       <c r="D541" s="2"/>
     </row>
-    <row r="542" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B542" s="2"/>
-      <c r="C542" s="2"/>
+      <c r="B542" s="2">
+        <v>9029</v>
+      </c>
+      <c r="C542" s="2">
+        <v>9040</v>
+      </c>
       <c r="D542" s="2"/>
     </row>
-    <row r="543" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B543" s="2"/>
+      <c r="B543" s="2">
+        <v>9039</v>
+      </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
     </row>
-    <row r="544" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>543</v>
       </c>
@@ -7200,7 +7321,7 @@
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
     </row>
-    <row r="545" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>544</v>
       </c>
@@ -7208,7 +7329,7 @@
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
     </row>
-    <row r="546" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>545</v>
       </c>
@@ -7216,31 +7337,37 @@
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
     </row>
-    <row r="547" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B547" s="2"/>
+      <c r="B547" s="2">
+        <v>9036</v>
+      </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
     </row>
-    <row r="548" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B548" s="2"/>
+      <c r="B548" s="2">
+        <v>9035</v>
+      </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
     </row>
-    <row r="549" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B549" s="2"/>
+      <c r="B549" s="2">
+        <v>9027</v>
+      </c>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
     </row>
-    <row r="550" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>549</v>
       </c>
@@ -7248,23 +7375,35 @@
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
     </row>
-    <row r="551" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B551" s="2"/>
-      <c r="C551" s="2"/>
-      <c r="D551" s="2"/>
-    </row>
-    <row r="552" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B551" s="2">
+        <v>9031</v>
+      </c>
+      <c r="C551" s="2">
+        <v>9040</v>
+      </c>
+      <c r="D551" s="2">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B552" s="2"/>
-      <c r="C552" s="2"/>
-      <c r="D552" s="2"/>
-    </row>
-    <row r="553" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B552" s="2">
+        <v>9039</v>
+      </c>
+      <c r="C552" s="2">
+        <v>9100</v>
+      </c>
+      <c r="D552" s="2">
+        <v>9031</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>552</v>
       </c>
@@ -7272,47 +7411,67 @@
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
     </row>
-    <row r="554" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B554" s="2"/>
-      <c r="C554" s="2"/>
-      <c r="D554" s="2"/>
-    </row>
-    <row r="555" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B554" s="2">
+        <v>9043</v>
+      </c>
+      <c r="C554" s="2">
+        <v>9087</v>
+      </c>
+      <c r="D554" s="2">
+        <v>9089</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B555" s="2"/>
-      <c r="C555" s="2"/>
-      <c r="D555" s="2"/>
-    </row>
-    <row r="556" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B555" s="2">
+        <v>9042</v>
+      </c>
+      <c r="C555" s="2">
+        <v>9087</v>
+      </c>
+      <c r="D555" s="2">
+        <v>9089</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B556" s="2"/>
-      <c r="C556" s="2"/>
+      <c r="B556" s="2">
+        <v>9042</v>
+      </c>
+      <c r="C556" s="2">
+        <v>9043</v>
+      </c>
       <c r="D556" s="2"/>
     </row>
-    <row r="557" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B557" s="2"/>
+      <c r="B557" s="2">
+        <v>9096</v>
+      </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
     </row>
-    <row r="558" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B558" s="2"/>
+      <c r="B558" s="2">
+        <v>9045</v>
+      </c>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
     </row>
-    <row r="559" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>558</v>
       </c>
@@ -7320,47 +7479,63 @@
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
     </row>
-    <row r="560" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B560" s="2"/>
+      <c r="B560" s="2">
+        <v>9049</v>
+      </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
     </row>
-    <row r="561" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B561" s="2"/>
+      <c r="B561" s="2">
+        <v>9048</v>
+      </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
     </row>
-    <row r="562" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B562" s="2"/>
-      <c r="C562" s="2"/>
+      <c r="B562" s="2">
+        <v>9051</v>
+      </c>
+      <c r="C562" s="2">
+        <v>9052</v>
+      </c>
       <c r="D562" s="2"/>
     </row>
-    <row r="563" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B563" s="2"/>
-      <c r="C563" s="2"/>
+      <c r="B563" s="2">
+        <v>9050</v>
+      </c>
+      <c r="C563" s="2">
+        <v>9052</v>
+      </c>
       <c r="D563" s="2"/>
     </row>
-    <row r="564" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B564" s="2"/>
-      <c r="C564" s="2"/>
+      <c r="B564" s="2">
+        <v>9050</v>
+      </c>
+      <c r="C564" s="2">
+        <v>9051</v>
+      </c>
       <c r="D564" s="2"/>
     </row>
-    <row r="565" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>564</v>
       </c>
@@ -7368,39 +7543,49 @@
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
     </row>
-    <row r="566" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B566" s="2"/>
+      <c r="B566" s="2">
+        <v>9055</v>
+      </c>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
     </row>
-    <row r="567" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B567" s="2"/>
+      <c r="B567" s="2">
+        <v>9054</v>
+      </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
     </row>
-    <row r="568" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B568" s="2"/>
+      <c r="B568" s="2">
+        <v>9057</v>
+      </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
     </row>
-    <row r="569" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B569" s="2"/>
-      <c r="C569" s="2"/>
+      <c r="B569" s="2">
+        <v>9092</v>
+      </c>
+      <c r="C569" s="2">
+        <v>9056</v>
+      </c>
       <c r="D569" s="2"/>
     </row>
-    <row r="570" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>569</v>
       </c>
@@ -7408,7 +7593,7 @@
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
     </row>
-    <row r="571" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>570</v>
       </c>
@@ -7416,7 +7601,7 @@
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
     </row>
-    <row r="572" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>571</v>
       </c>
@@ -7424,39 +7609,49 @@
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
     </row>
-    <row r="573" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B573" s="2"/>
+      <c r="B573" s="2">
+        <v>9062</v>
+      </c>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
     </row>
-    <row r="574" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B574" s="2"/>
+      <c r="B574" s="2">
+        <v>9061</v>
+      </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
     </row>
-    <row r="575" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B575" s="2"/>
-      <c r="C575" s="2"/>
+      <c r="B575" s="2">
+        <v>9064</v>
+      </c>
+      <c r="C575" s="2">
+        <v>9091</v>
+      </c>
       <c r="D575" s="2"/>
     </row>
-    <row r="576" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B576" s="2"/>
+      <c r="B576" s="2">
+        <v>9063</v>
+      </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
     </row>
-    <row r="577" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>576</v>
       </c>
@@ -7464,7 +7659,7 @@
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
     </row>
-    <row r="578" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>577</v>
       </c>
@@ -7472,7 +7667,7 @@
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
     </row>
-    <row r="579" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>578</v>
       </c>
@@ -7480,7 +7675,7 @@
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
     </row>
-    <row r="580" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>579</v>
       </c>
@@ -7488,7 +7683,7 @@
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
     </row>
-    <row r="581" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>580</v>
       </c>
@@ -7496,7 +7691,7 @@
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
     </row>
-    <row r="582" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>581</v>
       </c>
@@ -7504,7 +7699,7 @@
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
     </row>
-    <row r="583" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>582</v>
       </c>
@@ -7512,7 +7707,7 @@
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
     </row>
-    <row r="584" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>583</v>
       </c>
@@ -7520,7 +7715,7 @@
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
     </row>
-    <row r="585" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>584</v>
       </c>
@@ -7528,47 +7723,69 @@
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
     </row>
-    <row r="586" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B586" s="2"/>
-      <c r="C586" s="2"/>
-      <c r="D586" s="2"/>
-    </row>
-    <row r="587" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B586" s="2">
+        <v>9075</v>
+      </c>
+      <c r="C586" s="2">
+        <v>9076</v>
+      </c>
+      <c r="D586" s="2">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B587" s="2"/>
-      <c r="C587" s="2"/>
-      <c r="D587" s="2"/>
-    </row>
-    <row r="588" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B587" s="2">
+        <v>9074</v>
+      </c>
+      <c r="C587" s="2">
+        <v>9076</v>
+      </c>
+      <c r="D587" s="2">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B588" s="2"/>
-      <c r="C588" s="2"/>
-      <c r="D588" s="2"/>
-    </row>
-    <row r="589" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B588" s="2">
+        <v>9074</v>
+      </c>
+      <c r="C588" s="2">
+        <v>9075</v>
+      </c>
+      <c r="D588" s="2">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B589" s="2"/>
+      <c r="B589" s="2">
+        <v>9078</v>
+      </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
     </row>
-    <row r="590" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B590" s="2"/>
+      <c r="B590" s="2">
+        <v>9077</v>
+      </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
     </row>
-    <row r="591" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>590</v>
       </c>
@@ -7576,7 +7793,7 @@
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
     </row>
-    <row r="592" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>591</v>
       </c>
@@ -7584,15 +7801,21 @@
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
     </row>
-    <row r="593" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B593" s="2"/>
-      <c r="C593" s="2"/>
-      <c r="D593" s="2"/>
-    </row>
-    <row r="594" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B593" s="2">
+        <v>9074</v>
+      </c>
+      <c r="C593" s="2">
+        <v>9075</v>
+      </c>
+      <c r="D593" s="2">
+        <v>9076</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>593</v>
       </c>
@@ -7600,31 +7823,45 @@
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
     </row>
-    <row r="595" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B595" s="2"/>
-      <c r="C595" s="2"/>
+      <c r="B595" s="2">
+        <v>9084</v>
+      </c>
+      <c r="C595" s="2">
+        <v>9085</v>
+      </c>
       <c r="D595" s="2"/>
     </row>
-    <row r="596" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B596" s="2"/>
-      <c r="C596" s="2"/>
+      <c r="B596" s="2">
+        <v>9083</v>
+      </c>
+      <c r="C596" s="2">
+        <v>9085</v>
+      </c>
       <c r="D596" s="2"/>
     </row>
-    <row r="597" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B597" s="2"/>
-      <c r="C597" s="2"/>
-      <c r="D597" s="2"/>
-    </row>
-    <row r="598" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B597" s="2">
+        <v>9027</v>
+      </c>
+      <c r="C597" s="2">
+        <v>9037</v>
+      </c>
+      <c r="D597" s="2">
+        <v>9083</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>597</v>
       </c>
@@ -7632,31 +7869,49 @@
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
     </row>
-    <row r="599" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B599" s="2"/>
-      <c r="C599" s="2"/>
-      <c r="D599" s="2"/>
-    </row>
-    <row r="600" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B599" s="2">
+        <v>9088</v>
+      </c>
+      <c r="C599" s="2">
+        <v>9089</v>
+      </c>
+      <c r="D599" s="2">
+        <v>9042</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B600" s="2"/>
-      <c r="C600" s="2"/>
-      <c r="D600" s="2"/>
-    </row>
-    <row r="601" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B600" s="2">
+        <v>9087</v>
+      </c>
+      <c r="C600" s="2">
+        <v>9089</v>
+      </c>
+      <c r="D600" s="2">
+        <v>9042</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B601" s="2"/>
-      <c r="C601" s="2"/>
-      <c r="D601" s="2"/>
-    </row>
-    <row r="602" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B601" s="2">
+        <v>9087</v>
+      </c>
+      <c r="C601" s="2">
+        <v>9088</v>
+      </c>
+      <c r="D601" s="2">
+        <v>9042</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>601</v>
       </c>
@@ -7664,143 +7919,207 @@
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
     </row>
-    <row r="603" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B603" s="2"/>
+      <c r="B603" s="2">
+        <v>9063</v>
+      </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
     </row>
-    <row r="604" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B604" s="2"/>
+      <c r="B604" s="2">
+        <v>9057</v>
+      </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
     </row>
-    <row r="605" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B605" s="2"/>
-      <c r="C605" s="2"/>
+      <c r="B605" s="2">
+        <v>9094</v>
+      </c>
+      <c r="C605" s="2">
+        <v>9095</v>
+      </c>
       <c r="D605" s="2"/>
     </row>
-    <row r="606" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B606" s="2"/>
-      <c r="C606" s="2"/>
+      <c r="B606" s="2">
+        <v>9093</v>
+      </c>
+      <c r="C606" s="2">
+        <v>9095</v>
+      </c>
       <c r="D606" s="2"/>
     </row>
-    <row r="607" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B607" s="2"/>
-      <c r="C607" s="2"/>
+      <c r="B607" s="2">
+        <v>9093</v>
+      </c>
+      <c r="C607" s="2">
+        <v>9094</v>
+      </c>
       <c r="D607" s="2"/>
     </row>
-    <row r="608" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B608" s="2"/>
-      <c r="C608" s="2"/>
+      <c r="B608" s="2">
+        <v>9011</v>
+      </c>
+      <c r="C608" s="2">
+        <v>9012</v>
+      </c>
       <c r="D608" s="2"/>
     </row>
-    <row r="609" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B609" s="2"/>
+      <c r="B609" s="2">
+        <v>9098</v>
+      </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
     </row>
-    <row r="610" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B610" s="2"/>
+      <c r="B610" s="2">
+        <v>9097</v>
+      </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
     </row>
-    <row r="611" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B611" s="2"/>
+      <c r="B611" s="2">
+        <v>9100</v>
+      </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
     </row>
-    <row r="612" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B612" s="2"/>
+      <c r="B612" s="2">
+        <v>9099</v>
+      </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
     </row>
-    <row r="613" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B613" s="2"/>
-      <c r="C613" s="2"/>
+      <c r="B613" s="2">
+        <v>9102</v>
+      </c>
+      <c r="C613" s="2">
+        <v>9103</v>
+      </c>
       <c r="D613" s="2"/>
     </row>
-    <row r="614" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B614" s="2"/>
-      <c r="C614" s="2"/>
+      <c r="B614" s="2">
+        <v>9101</v>
+      </c>
+      <c r="C614" s="2">
+        <v>9103</v>
+      </c>
       <c r="D614" s="2"/>
     </row>
-    <row r="615" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B615" s="2"/>
-      <c r="C615" s="2"/>
+      <c r="B615" s="2">
+        <v>9101</v>
+      </c>
+      <c r="C615" s="2">
+        <v>9102</v>
+      </c>
       <c r="D615" s="2"/>
     </row>
-    <row r="616" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B616" s="2"/>
-      <c r="C616" s="2"/>
-      <c r="D616" s="2"/>
-    </row>
-    <row r="617" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B616" s="2">
+        <v>9105</v>
+      </c>
+      <c r="C616" s="2">
+        <v>9106</v>
+      </c>
+      <c r="D616" s="2">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B617" s="2"/>
-      <c r="C617" s="2"/>
-      <c r="D617" s="2"/>
-    </row>
-    <row r="618" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B617" s="2">
+        <v>9104</v>
+      </c>
+      <c r="C617" s="2">
+        <v>9106</v>
+      </c>
+      <c r="D617" s="2">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B618" s="2"/>
-      <c r="C618" s="2"/>
-      <c r="D618" s="2"/>
-    </row>
-    <row r="619" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B618" s="2">
+        <v>9104</v>
+      </c>
+      <c r="C618" s="2">
+        <v>9105</v>
+      </c>
+      <c r="D618" s="2">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B619" s="2"/>
-      <c r="C619" s="2"/>
-      <c r="D619" s="2"/>
-    </row>
-    <row r="620" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B619" s="2">
+        <v>9104</v>
+      </c>
+      <c r="C619" s="2">
+        <v>9105</v>
+      </c>
+      <c r="D619" s="2">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>619</v>
       </c>
@@ -7808,7 +8127,7 @@
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
     </row>
-    <row r="621" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>620</v>
       </c>
@@ -7816,7 +8135,7 @@
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
     </row>
-    <row r="622" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>621</v>
       </c>
@@ -7824,39 +8143,55 @@
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
     </row>
-    <row r="623" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B623" s="2"/>
-      <c r="C623" s="2"/>
+      <c r="B623" s="2">
+        <v>9209</v>
+      </c>
+      <c r="C623" s="2">
+        <v>9210</v>
+      </c>
       <c r="D623" s="2"/>
     </row>
-    <row r="624" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B624" s="2"/>
-      <c r="C624" s="2"/>
+      <c r="B624" s="2">
+        <v>9202</v>
+      </c>
+      <c r="C624" s="2">
+        <v>9203</v>
+      </c>
       <c r="D624" s="2"/>
     </row>
-    <row r="625" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B625" s="2"/>
-      <c r="C625" s="2"/>
+      <c r="B625" s="2">
+        <v>9201</v>
+      </c>
+      <c r="C625" s="2">
+        <v>9203</v>
+      </c>
       <c r="D625" s="2"/>
     </row>
-    <row r="626" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B626" s="2"/>
-      <c r="C626" s="2"/>
+      <c r="B626" s="2">
+        <v>9201</v>
+      </c>
+      <c r="C626" s="2">
+        <v>9202</v>
+      </c>
       <c r="D626" s="2"/>
     </row>
-    <row r="627" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>626</v>
       </c>
@@ -7864,55 +8199,79 @@
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
     </row>
-    <row r="628" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B628" s="2"/>
-      <c r="C628" s="2"/>
+      <c r="B628" s="2">
+        <v>9206</v>
+      </c>
+      <c r="C628" s="2">
+        <v>9207</v>
+      </c>
       <c r="D628" s="2"/>
     </row>
-    <row r="629" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B629" s="2"/>
-      <c r="C629" s="2"/>
+      <c r="B629" s="2">
+        <v>9205</v>
+      </c>
+      <c r="C629" s="2">
+        <v>9207</v>
+      </c>
       <c r="D629" s="2"/>
     </row>
-    <row r="630" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B630" s="2"/>
-      <c r="C630" s="2"/>
+      <c r="B630" s="2">
+        <v>9205</v>
+      </c>
+      <c r="C630" s="2">
+        <v>9206</v>
+      </c>
       <c r="D630" s="2"/>
     </row>
-    <row r="631" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B631" s="2"/>
-      <c r="C631" s="2"/>
+      <c r="B631" s="2">
+        <v>9209</v>
+      </c>
+      <c r="C631" s="2">
+        <v>9210</v>
+      </c>
       <c r="D631" s="2"/>
     </row>
-    <row r="632" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B632" s="2"/>
-      <c r="C632" s="2"/>
+      <c r="B632" s="2">
+        <v>9208</v>
+      </c>
+      <c r="C632" s="2">
+        <v>9210</v>
+      </c>
       <c r="D632" s="2"/>
     </row>
-    <row r="633" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B633" s="2"/>
-      <c r="C633" s="2"/>
+      <c r="B633" s="2">
+        <v>9208</v>
+      </c>
+      <c r="C633" s="2">
+        <v>9209</v>
+      </c>
       <c r="D633" s="2"/>
     </row>
-    <row r="634" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>633</v>
       </c>
@@ -7920,7 +8279,7 @@
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
     </row>
-    <row r="635" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>634</v>
       </c>
@@ -7928,7 +8287,7 @@
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
     </row>
-    <row r="636" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>635</v>
       </c>
@@ -7936,7 +8295,7 @@
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
     </row>
-    <row r="637" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>636</v>
       </c>
@@ -7944,7 +8303,7 @@
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
     </row>
-    <row r="638" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>637</v>
       </c>
@@ -7952,64 +8311,32 @@
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
     </row>
-    <row r="639" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B639" s="2"/>
+      <c r="B639" s="2">
+        <v>9959</v>
+      </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
     </row>
-    <row r="640" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B640" s="2"/>
-      <c r="C640" s="2"/>
-      <c r="D640" s="2"/>
-    </row>
-    <row r="641" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A641" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B641" s="2"/>
-      <c r="C641" s="2"/>
-      <c r="D641" s="2"/>
-    </row>
-    <row r="642" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A642" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B642" s="2"/>
-      <c r="C642" s="2"/>
-      <c r="D642" s="2"/>
-    </row>
-    <row r="643" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A643" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B643" s="2"/>
-      <c r="C643" s="2"/>
-      <c r="D643" s="2"/>
-    </row>
-    <row r="644" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A644" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B644" s="2"/>
-      <c r="C644" s="2"/>
-      <c r="D644" s="2"/>
-    </row>
-    <row r="645" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A645" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B645" s="2"/>
-      <c r="C645" s="2"/>
-      <c r="D645" s="2"/>
+      <c r="B640" s="2">
+        <v>9954</v>
+      </c>
+      <c r="C640" s="2">
+        <v>9941</v>
+      </c>
+      <c r="D640" s="2">
+        <v>9942</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D645"/>
+  <autoFilter ref="A1:D640"/>
   <pageMargins left="0.7" right="0.7" top="0.26" bottom="0.37" header="0.19" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
